--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3251883.3962425</v>
+        <v>3246143.281534284</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359931</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.9935289075674</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>121.9636488231383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517431</v>
+        <v>72.50477145174317</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>98.31432270723877</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810083</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7074114283592599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.558491787101</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731837</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.078878307095</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>26.74397950518582</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>348.1758854140521</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1808171872107</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>94.41525559707604</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>165.0044438743485</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>142.9446842106539</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.5341321345342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>137.4419114249864</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>57.68750238080782</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.45932786808054</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>143.157570894838</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>152.8950161112829</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>82.24304332837708</v>
+        <v>24.37260902265845</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.7934237934392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>14.20188851094889</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>160.0509524740919</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>112.7951350776563</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>20.62988165152376</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>230.0882684280477</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>80.45588712168272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>5.947390656461772</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>27.19292662790583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>285.5607822746229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>88.8612860824536</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>284.1870342025334</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.3126716447088</v>
+        <v>1304.679872561442</v>
       </c>
       <c r="C2" t="n">
-        <v>967.3126716447088</v>
+        <v>935.71735562103</v>
       </c>
       <c r="D2" t="n">
-        <v>967.3126716447088</v>
+        <v>577.4516570142796</v>
       </c>
       <c r="E2" t="n">
-        <v>967.3126716447088</v>
+        <v>191.6634044160353</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>184.7179036668319</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738261</v>
+        <v>170.5046310855566</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>170.5046310855566</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015912</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060715</v>
+        <v>397.0764468060712</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.5640925927198</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804442</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222163</v>
+        <v>2109.431301222161</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748512</v>
+        <v>1889.52773474851</v>
       </c>
       <c r="U2" t="n">
-        <v>1635.742759905014</v>
+        <v>1635.742759905012</v>
       </c>
       <c r="V2" t="n">
-        <v>1304.679872561444</v>
+        <v>1304.679872561442</v>
       </c>
       <c r="W2" t="n">
-        <v>1304.679872561444</v>
+        <v>1304.679872561442</v>
       </c>
       <c r="X2" t="n">
-        <v>1304.679872561444</v>
+        <v>1304.679872561442</v>
       </c>
       <c r="Y2" t="n">
-        <v>1304.679872561444</v>
+        <v>1304.679872561442</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.791617806416</v>
+        <v>843.1583574384931</v>
       </c>
       <c r="C3" t="n">
-        <v>676.338588525289</v>
+        <v>668.7053281573661</v>
       </c>
       <c r="D3" t="n">
-        <v>527.4041788640377</v>
+        <v>519.7709184961149</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1667238585821</v>
+        <v>360.5334634906594</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6321658854671</v>
+        <v>213.9989055175443</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>213.9989055175443</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>108.2048630683009</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138131</v>
+        <v>338.9063907138129</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852934</v>
+        <v>710.5174612568458</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874824</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>2114.310927191455</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2305.608548885991</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2144.554785926782</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087515</v>
+        <v>2144.554785926782</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549725</v>
+        <v>1916.374958388992</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317982</v>
+        <v>1681.222850157249</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.48181058978</v>
+        <v>1426.985493429048</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.767253591438</v>
+        <v>1219.133993223515</v>
       </c>
       <c r="Y3" t="n">
-        <v>1019.006954826484</v>
+        <v>1011.373694458561</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="C4" t="n">
-        <v>194.1989737116102</v>
+        <v>445.9028923267125</v>
       </c>
       <c r="D4" t="n">
-        <v>194.1989737116102</v>
+        <v>295.7862529143767</v>
       </c>
       <c r="E4" t="n">
-        <v>194.1989737116102</v>
+        <v>147.8731593319836</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369982</v>
+        <v>147.8731593319836</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369982</v>
+        <v>147.8731593319836</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181612</v>
+        <v>88.80529410181603</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365665</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950602</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885936</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>420.5412750319082</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>420.5412750319082</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="T4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="U4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="V4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="W4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="X4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.1989737116102</v>
+        <v>614.8390752546194</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C5" t="n">
-        <v>940.7524019189439</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D5" t="n">
-        <v>582.4867033121934</v>
+        <v>798.3695487173597</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>412.5812961191155</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>405.635795369912</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>404.9282174162495</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162495</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162495</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162495</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162495</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>887.4925516215208</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>476.5066468319132</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2530.477935589588</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2530.477935589588</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2530.477935589588</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2177.709280319473</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2177.709280319473</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y8" t="n">
-        <v>2177.709280319473</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,25 +5044,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,7 +5074,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.5092287479694</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479694</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.147244476226</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>1215.147244476226</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>987.1576935782091</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y13" t="n">
-        <v>987.1576935782091</v>
+        <v>998.7893082582084</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,40 +5266,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>836.0059675195635</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1287.040180767972</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2265.590483597801</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.0071782166609</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C16" t="n">
-        <v>550.0071782166609</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D16" t="n">
-        <v>550.0071782166609</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>402.0940846342678</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>770.7997573601911</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.0071782166609</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5542,13 +5542,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1906.384549066238</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1714.698664893064</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1714.698664893064</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1425.595798018708</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1170.911309812821</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1170.911309812821</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>942.9217589148035</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>722.1291797712734</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5755,28 +5755,28 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463052</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5843,28 +5843,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779659</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258583</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258583</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.643339221623</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.203929008206</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>1009.203929008206</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5995,16 +5995,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1364.144379432265</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1897.67628410419</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3480.327537565077</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C25" t="n">
-        <v>3480.327537565077</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D25" t="n">
-        <v>3330.210898152742</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>3182.297804570348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>3182.297804570348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4694.977941279946</v>
+        <v>1841.894211869647</v>
       </c>
       <c r="T25" t="n">
-        <v>4473.211325849472</v>
+        <v>1620.127596439173</v>
       </c>
       <c r="U25" t="n">
-        <v>4473.211325849472</v>
+        <v>1331.024729564816</v>
       </c>
       <c r="V25" t="n">
-        <v>4218.526837643585</v>
+        <v>1331.024729564816</v>
       </c>
       <c r="W25" t="n">
-        <v>3929.109667606624</v>
+        <v>1041.607559527856</v>
       </c>
       <c r="X25" t="n">
-        <v>3701.120116708607</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="Y25" t="n">
-        <v>3480.327537565077</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422545</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3329.187752068259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3329.187752068259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3329.187752068259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3329.187752068259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>4364.599222816073</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>4109.914734610186</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>3959.618346940046</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>3731.628796042029</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>3510.836216898499</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867998</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3819.938960973981</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4214.713327331159</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4673.191529840147</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.0235789048305</v>
+        <v>278.8425593065527</v>
       </c>
       <c r="C31" t="n">
-        <v>784.0235789048305</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1704.845380100522</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1483.078764670048</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1483.078764670048</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1483.078764670048</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.661594633088</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X31" t="n">
-        <v>965.6720437350702</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.6720437350702</v>
+        <v>460.4910241367925</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>348.0829740810764</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422545</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2996.062531649191</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3876.027181978646</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6803,28 +6803,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3331.444244455367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3162.508061527461</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3162.508061527461</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>4574.286785300828</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4285.183918426472</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4030.499430220585</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>3741.082260183624</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>3513.092709285607</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>3513.092709285607</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,43 +6922,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7040,28 +7040,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.8321102045701</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C37" t="n">
-        <v>485.9938459101016</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D37" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384227</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V37" t="n">
-        <v>909.27315417834</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W37" t="n">
-        <v>909.27315417834</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X37" t="n">
-        <v>909.27315417834</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.4805750348098</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1067.865561890629</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364129</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>715.1755123426793</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7368,16 +7368,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1163.957642384227</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.957642384227</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>935.9680914862095</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.1755123426793</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143013</v>
@@ -7399,43 +7399,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620956</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2915.526830679738</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>3795.491481009193</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.070220408989</v>
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
@@ -7502,7 +7502,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
         <v>2125.961311426849</v>
@@ -7511,19 +7511,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.7198286198654</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C43" t="n">
-        <v>654.7198286198654</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="D43" t="n">
-        <v>654.7198286198654</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>123.0286371028448</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>123.0286371028448</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>123.0286371028448</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>123.0286371028448</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
         <v>344.6708498442063</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384227</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>875.5124077633956</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X43" t="n">
-        <v>875.5124077633956</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y43" t="n">
-        <v>654.7198286198654</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7636,43 +7636,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.228895027647</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946816</v>
@@ -7681,16 +7681,16 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
         <v>2760.816196754298</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7751,28 +7751,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.9597618327374</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.584591273942</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.817975843468</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.817975843468</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.817975843468</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.400805806507</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X46" t="n">
-        <v>1355.400805806507</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y46" t="n">
-        <v>1134.608226662977</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>159.9845957362342</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.8185614859228</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263788</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>345.3140082169174</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>219.9458872952496</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
-        <v>317.514626110615</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N20" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>297.8289162490814</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>317.5146261106152</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>46.3061879017892</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>64.28566532692582</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>201.9664098701136</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>201.9664098701135</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>285.0508825989996</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P41" t="n">
-        <v>71.00061210864584</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>410.4190035206669</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.88729597128335</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>16.60351118929376</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>7.979136597944802</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>160.897150971287</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.47282480196681</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>46.61145443660385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>72.81463927775425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.5259820030648</v>
+        <v>165.3964163087834</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>137.7295745431518</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>134.4135845072635</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>29.71807285734999</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.7538141985129</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>146.6169394471041</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>22.04937489578035</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>86.79093397694511</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>219.7622647325754</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.1594937819323</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9622160619680926</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>100.9077392489883</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.335964134057633</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522209</v>
       </c>
       <c r="F2" t="n">
         <v>694893.1270522207</v>
       </c>
       <c r="G2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="H2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="H2" t="n">
-        <v>694893.1270522203</v>
-      </c>
       <c r="I2" t="n">
-        <v>694893.1270522202</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="J2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="K2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522202</v>
       </c>
       <c r="L2" t="n">
-        <v>694893.1270522201</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522203</v>
       </c>
       <c r="N2" t="n">
-        <v>694893.1270522202</v>
+        <v>694893.1270522203</v>
       </c>
       <c r="O2" t="n">
         <v>694893.1270522204</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522202</v>
+        <v>694893.1270522204</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446901</v>
+        <v>91792.63957446936</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220078</v>
+        <v>21342.09858220087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659809</v>
+        <v>226943.954765981</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26432,34 +26432,34 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499377</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499377</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499384</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>25090.72367499383</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499384</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499385</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499384</v>
-      </c>
       <c r="L4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499384</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499385</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140122</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,10 +26484,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78185.19667678227</v>
+        <v>-78185.19667678197</v>
       </c>
       <c r="C6" t="n">
-        <v>342695.3250656381</v>
+        <v>342695.3250656378</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.9646401069</v>
+        <v>434487.964640107</v>
       </c>
       <c r="E6" t="n">
-        <v>-153958.5288698933</v>
+        <v>-154630.4837721512</v>
       </c>
       <c r="F6" t="n">
-        <v>573418.8851235131</v>
+        <v>572746.9302212554</v>
       </c>
       <c r="G6" t="n">
-        <v>573418.8851235133</v>
+        <v>572746.9302212554</v>
       </c>
       <c r="H6" t="n">
-        <v>573418.8851235128</v>
+        <v>572746.9302212553</v>
       </c>
       <c r="I6" t="n">
-        <v>573418.8851235127</v>
+        <v>572746.9302212552</v>
       </c>
       <c r="J6" t="n">
-        <v>418692.3494402971</v>
+        <v>418020.3945380393</v>
       </c>
       <c r="K6" t="n">
-        <v>552076.7865413122</v>
+        <v>551404.831639054</v>
       </c>
       <c r="L6" t="n">
-        <v>573418.8851235126</v>
+        <v>572746.9302212551</v>
       </c>
       <c r="M6" t="n">
-        <v>443776.5702845682</v>
+        <v>443104.6153823101</v>
       </c>
       <c r="N6" t="n">
-        <v>573418.8851235127</v>
+        <v>572746.9302212549</v>
       </c>
       <c r="O6" t="n">
-        <v>573418.8851235129</v>
+        <v>572746.9302212551</v>
       </c>
       <c r="P6" t="n">
-        <v>573418.8851235127</v>
+        <v>572746.9302212551</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353684</v>
+        <v>71.38374637353712</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.74031275591318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.03107197274123</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.556927764243568</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.0655737751182</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>57.75687744737151</v>
       </c>
       <c r="I4" t="n">
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848775</v>
+        <v>54.30080173848779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731841</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>1.506233065670585</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>355.1863905670759</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>65.60828460674287</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>80.85428827087361</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>89.56002855569153</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>319.3689144237189</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>51.44387648330931</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>85.14112624278596</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452646</v>
+        <v>47.48116877452641</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015737</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589798</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709654</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940659</v>
+        <v>77.36434648940651</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216639</v>
+        <v>5.391318755216634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380486</v>
+        <v>0.09852781277380478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540505</v>
+        <v>0.6589628421540499</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014121</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478478</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403686</v>
+        <v>62.2575376440368</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338372</v>
+        <v>84.11602876338364</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.9134999716348</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945492</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627665</v>
+        <v>0.04335281856276646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654176</v>
+        <v>0.5524523108654171</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296708</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509123</v>
+        <v>64.18491393509117</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448219</v>
+        <v>82.13459174448211</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502177</v>
+        <v>86.59941087502169</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361438</v>
+        <v>84.54027044361429</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395924</v>
+        <v>78.08662299395917</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230466</v>
+        <v>66.8165958523046</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437597</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400323</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263683</v>
+        <v>9.627737090263674</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302161</v>
+        <v>92.58102251302151</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249177</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564206</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.510946317779</v>
+        <v>61.51094631777895</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>164.5089681530104</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>253.6771550439742</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920838</v>
+        <v>41.91542210920832</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719815</v>
+        <v>64.09515511719809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>897.6158436298289</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>557.1371738506501</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
-        <v>856.4357419408416</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N20" t="n">
-        <v>963.3322635028113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>753.4190306414133</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>869.8164615235264</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>105.9193864440139</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>255.0726662956383</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>600.7283960894853</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>740.88752570034</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>622.2421691544</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37782,25 +37782,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P41" t="n">
-        <v>469.7625983280175</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>962.7208389335782</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3246143.281534284</v>
+        <v>3249548.772658732</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8492118.846789638</v>
+        <v>8492118.846789639</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>296.3420890413921</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>121.9636488231383</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>98.31432270723877</v>
+        <v>28.33842618975347</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>59.24433418100823</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>99.55849178710216</v>
       </c>
       <c r="H4" t="n">
-        <v>99.558491787101</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.1758854140521</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.9566202902067</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>289.9093286709409</v>
       </c>
       <c r="G8" t="n">
-        <v>94.41525559707604</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>28.51033041214347</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9446842106539</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>45.13488027341143</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1818,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>3.06456982464872</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.68750238080782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>143.157570894838</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>76.93972860841085</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>24.37260902265845</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>191.5688429199807</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.5103646250807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.20188851094889</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>170.8065716692284</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>230.0882684280477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881771</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>184.8003876532438</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>5.947390656461772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>27.19292662790583</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>284.1870342025334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1304.679872561442</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="C2" t="n">
-        <v>935.71735562103</v>
+        <v>1996.488793744582</v>
       </c>
       <c r="D2" t="n">
-        <v>577.4516570142796</v>
+        <v>1638.223095137831</v>
       </c>
       <c r="E2" t="n">
-        <v>191.6634044160353</v>
+        <v>1252.434842539587</v>
       </c>
       <c r="F2" t="n">
-        <v>184.7179036668319</v>
+        <v>841.4489377499797</v>
       </c>
       <c r="G2" t="n">
-        <v>170.5046310855566</v>
+        <v>542.1134942738261</v>
       </c>
       <c r="H2" t="n">
-        <v>170.5046310855566</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060712</v>
+        <v>397.076446806072</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927198</v>
+        <v>769.564092592721</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054137</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222161</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.52773474851</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="U2" t="n">
-        <v>1635.742759905012</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="V2" t="n">
-        <v>1304.679872561442</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="W2" t="n">
-        <v>1304.679872561442</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="X2" t="n">
-        <v>1304.679872561442</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="Y2" t="n">
-        <v>1304.679872561442</v>
+        <v>2365.451310684994</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>843.1583574384931</v>
+        <v>843.1583574384972</v>
       </c>
       <c r="C3" t="n">
-        <v>668.7053281573661</v>
+        <v>668.7053281573702</v>
       </c>
       <c r="D3" t="n">
-        <v>519.7709184961149</v>
+        <v>519.770918496119</v>
       </c>
       <c r="E3" t="n">
-        <v>360.5334634906594</v>
+        <v>360.5334634906635</v>
       </c>
       <c r="F3" t="n">
-        <v>213.9989055175443</v>
+        <v>213.9989055175484</v>
       </c>
       <c r="G3" t="n">
-        <v>213.9989055175443</v>
+        <v>75.93369913264277</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683009</v>
+        <v>108.2048630683012</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138129</v>
+        <v>338.9063907138134</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568458</v>
+        <v>654.4396961743739</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1140.071509376563</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101583</v>
+        <v>1654.263565019112</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191455</v>
+        <v>2058.233162108984</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2305.608548885995</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2144.554785926786</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926782</v>
+        <v>2144.554785926786</v>
       </c>
       <c r="U3" t="n">
-        <v>1916.374958388992</v>
+        <v>1916.374958388996</v>
       </c>
       <c r="V3" t="n">
-        <v>1681.222850157249</v>
+        <v>1681.222850157254</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.985493429048</v>
+        <v>1426.985493429052</v>
       </c>
       <c r="X3" t="n">
-        <v>1219.133993223515</v>
+        <v>1219.133993223519</v>
       </c>
       <c r="Y3" t="n">
-        <v>1011.373694458561</v>
+        <v>1011.373694458565</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="C4" t="n">
-        <v>445.9028923267125</v>
+        <v>445.9028923267138</v>
       </c>
       <c r="D4" t="n">
-        <v>295.7862529143767</v>
+        <v>295.786252914378</v>
       </c>
       <c r="E4" t="n">
-        <v>147.8731593319836</v>
+        <v>147.8731593319849</v>
       </c>
       <c r="F4" t="n">
-        <v>147.8731593319836</v>
+        <v>147.8731593319849</v>
       </c>
       <c r="G4" t="n">
-        <v>147.8731593319836</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181629</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365668</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950606</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896753</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885943</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.597764264522</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.63524732411</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>798.3695487173597</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>412.5812961191155</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>405.635795369912</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X5" t="n">
-        <v>2302.336936304455</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1912.197604328644</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1273.280804219765</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1273.280804219765</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1273.280804219765</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E8" t="n">
-        <v>887.4925516215208</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
-        <v>476.5066468319132</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.880644283887</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798412</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,7 +5074,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.4007383484569</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1629.236336534097</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1340.133469659741</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1085.448981453854</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="X13" t="n">
-        <v>998.7893082582084</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.7893082582084</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,16 +5263,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.7782212305366</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5466,22 +5466,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1761.562056856127</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.4266860607763</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5521,10 +5521,10 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
         <v>2667.236715577531</v>
@@ -5542,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.230460361821</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5779,7 +5779,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5855,16 +5855,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763014</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1721.909401897749</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1500.142786467275</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1211.039919592919</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>956.3554313870318</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>666.9382613500712</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500712</v>
+        <v>631.9695437995987</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.1456822065411</v>
+        <v>411.1769646560685</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,25 +6071,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.1769646560685</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1769646560685</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1841.894211869647</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1620.127596439173</v>
+        <v>1481.323242951704</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.024729564816</v>
+        <v>1192.220376077348</v>
       </c>
       <c r="V25" t="n">
-        <v>1331.024729564816</v>
+        <v>937.5358878714605</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.607559527856</v>
+        <v>648.1187178345</v>
       </c>
       <c r="X25" t="n">
-        <v>813.6180086298384</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.8254294863083</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.866738172571</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4391.840681985868</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>278.8425593065527</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>109.9063763786458</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W31" t="n">
-        <v>909.27315417834</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>681.2836032803226</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.4910241367925</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>348.0829740810764</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,28 +6779,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172571</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C37" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.576850674229</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.164458322666</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.747288285705</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>984.7577373876879</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>763.9651582441578</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,34 +7171,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K38" t="n">
-        <v>1067.865561890629</v>
+        <v>913.110166183857</v>
       </c>
       <c r="L38" t="n">
-        <v>1518.899775139038</v>
+        <v>1364.144379432266</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2877.428556330837</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660292</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1769.676407869104</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1769.676407869104</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>1480.573540994748</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>1225.889052788861</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>936.4718827519</v>
       </c>
       <c r="X40" t="n">
-        <v>613.848518831822</v>
+        <v>708.4823318538827</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.848518831822</v>
+        <v>487.6897527103525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E43" t="n">
-        <v>123.0286371028448</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F43" t="n">
-        <v>123.0286371028448</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G43" t="n">
-        <v>123.0286371028448</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H43" t="n">
-        <v>123.0286371028448</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570251</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590077</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154776</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>712.0460011152229</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>484.0564502172056</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>314.1961381494464</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>261.8185614859228</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263788</v>
+        <v>55.86574532263765</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>189.7998007892644</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>57.67224444723735</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>29.61882225792135</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,19 +9409,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>314.5564971416988</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>79.70465870845291</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>64.28566532692582</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>285.0508825989996</v>
+        <v>297.8289162490814</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.88729597128335</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>174.4140690027578</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>283.1472683809641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.897150971287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>46.61145443660385</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>148.7699267806263</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.3964163087834</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>27.98010635618849</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>81.33107165459978</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>134.4135845072635</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>81.33107165459958</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276433</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.04937489578035</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4.968637678198093</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>219.7622647325754</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>69.1594937819323</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>91.26811680410417</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.335964134057633</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="F2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="G2" t="n">
         <v>694893.1270522207</v>
-      </c>
-      <c r="G2" t="n">
-        <v>694893.1270522206</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522205</v>
@@ -26337,25 +26337,25 @@
         <v>694893.1270522205</v>
       </c>
       <c r="J2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="K2" t="n">
         <v>694893.1270522205</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522202</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522204</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="N2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522206</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106488</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446936</v>
+        <v>91792.63957446837</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.09858220061</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.954765981</v>
+        <v>226943.9547659807</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>25090.72367499378</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499377</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499377</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499385</v>
-      </c>
       <c r="J4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140122</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26490,25 +26490,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78185.19667678197</v>
+        <v>-78185.19667678294</v>
       </c>
       <c r="C6" t="n">
-        <v>342695.3250656378</v>
+        <v>342695.3250656384</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401069</v>
       </c>
       <c r="E6" t="n">
-        <v>-154630.4837721512</v>
+        <v>-154025.7243601196</v>
       </c>
       <c r="F6" t="n">
-        <v>572746.9302212554</v>
+        <v>573351.6896332871</v>
       </c>
       <c r="G6" t="n">
-        <v>572746.9302212554</v>
+        <v>573351.6896332875</v>
       </c>
       <c r="H6" t="n">
-        <v>572746.9302212553</v>
+        <v>573351.6896332874</v>
       </c>
       <c r="I6" t="n">
-        <v>572746.9302212552</v>
+        <v>573351.6896332873</v>
       </c>
       <c r="J6" t="n">
-        <v>418020.3945380393</v>
+        <v>418625.1539500714</v>
       </c>
       <c r="K6" t="n">
-        <v>551404.831639054</v>
+        <v>552009.5910510867</v>
       </c>
       <c r="L6" t="n">
-        <v>572746.9302212551</v>
+        <v>573351.6896332871</v>
       </c>
       <c r="M6" t="n">
-        <v>443104.6153823101</v>
+        <v>443709.3747943424</v>
       </c>
       <c r="N6" t="n">
-        <v>572746.9302212549</v>
+        <v>573351.6896332874</v>
       </c>
       <c r="O6" t="n">
-        <v>572746.9302212551</v>
+        <v>573351.6896332874</v>
       </c>
       <c r="P6" t="n">
-        <v>572746.9302212551</v>
+        <v>573351.6896332874</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435503</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435503</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353712</v>
+        <v>71.38374637353638</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330721</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330721</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330721</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>117.7290508140704</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.03107197274123</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174297</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.556927764243568</v>
+        <v>77.53282428172886</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>67.88003526049118</v>
       </c>
       <c r="H4" t="n">
-        <v>57.75687744737151</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>54.30080173848769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.90169565731829</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>65.60828460674287</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>140.9710716513185</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>14.65885272800568</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>89.56002855569153</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>116.9667170707706</v>
       </c>
       <c r="G8" t="n">
-        <v>319.3689144237189</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>138.7994718469074</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-4.926475458907758e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.061081734498856e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452654</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015739</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787782</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589801</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095248</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811557</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579893</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709656</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940671</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978856</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216647</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380503</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540517</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014131</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784783</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.25753764403697</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966506</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247349</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302329</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382931</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.833000972382</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.11602876338387</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163491</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276657</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654186</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967088</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584368</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818509</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509134</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448232</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.59941087502192</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361452</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395937</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230477</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.26034759437609</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400327</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.6277370902637</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084105</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302178</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277581</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592414</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245398</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249181</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222144</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742024</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564208</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777895</v>
+        <v>61.51094631777911</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.031846106578</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>318.7205105662227</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527165</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904532</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705782</v>
       </c>
       <c r="P3" t="n">
-        <v>253.6771550439742</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920849</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719826</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>742.1016362021759</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>513.2623588395695</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36129,19 +36129,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610707</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>330.4989635121724</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0726662956383</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>622.2421691544</v>
+        <v>635.0202028044819</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
